--- a/templates/NHWA_Module_3.xlsx
+++ b/templates/NHWA_Module_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD94B8C-C720-488D-B267-573D52CF11F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F38C16B-99AA-40D5-B042-37DBFCC94776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DNdhLaiJYJ2ZbD09elSFCyIbsfmsCvuMR7TLpKKqcWr+WHl4whasq0ZZ0A0eyWjFnXr15kGsuJqYxaWBtC5Tlw==" workbookSaltValue="6xngd8mX30SibXiPrW6QDg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="10995" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="781">
   <si>
-    <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
-  </si>
-  <si>
     <t>REGION:</t>
   </si>
   <si>
@@ -2346,42 +2343,43 @@
     <t>Occupation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Existence of national and/or subnational mechanism
-on continuing professional development (3-08)</t>
-  </si>
-  <si>
-    <t>Existence of in-service training as an element of
-national education plans for health workers (3-09)</t>
-  </si>
-  <si>
     <t>Existence of national and/or sub-national standard on the duration and contents of education and training (3-01)</t>
   </si>
   <si>
     <t>Midwifery Professional</t>
   </si>
   <si>
-    <t>Existence of national and/or sub-national mechanisms for accreditation of education and training institutions and their programmes, by programme, by occupation
+    <t xml:space="preserve">NATIONAL HEALTH WORKFORCE ACCOUNTS DATA </t>
+  </si>
+  <si>
+    <t>Existence of national and/or subnational standards for social accountability in accreditation mechanisms
+(3-03)</t>
+  </si>
+  <si>
+    <t>Existence of national and/or sub-national mechanisms for accreditation of education and training institutions and their programmes
 (3-02)</t>
   </si>
   <si>
-    <t>Existence of national and/or subnational mechanism on social accountability in accreditation
-(3-03)</t>
-  </si>
-  <si>
-    <t>Effective implementation
+    <t>Effective implementation of standards for social accountability
 (3-04)</t>
   </si>
   <si>
-    <t>Existence of national and/or sub-national standards for the Social Determinants of Health
+    <t>Existence of national and/or sub-national standards for the social determinants of health in accreditation mechanisms
 (3-05)</t>
   </si>
   <si>
-    <t>Existence of national and/or sub-national standards on interprofessional education in accreditation standards
+    <t>Existence of national and/or sub-national standards on interprofessional education in accreditation mechanisms
 (3-06)</t>
   </si>
   <si>
-    <t>Existence of cooperation between education and training institutions and health professional regulators to agree on the standards
+    <t>Existence of cooperation between education and training institutions and regulatory bodies on accreditation standards
 (3-07)</t>
+  </si>
+  <si>
+    <t>Existence of national systems for continuing professional development (3-08)</t>
+  </si>
+  <si>
+    <t>Existence of in-service training as an element of national education plans for health workers (3-09)</t>
   </si>
 </sst>
 </file>
@@ -2671,13 +2669,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -9018,7 +9016,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D20" sqref="D20"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9043,18 +9041,19 @@
     <col min="43" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="33"/>
+    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
@@ -9068,35 +9067,36 @@
       <c r="V1" s="33"/>
       <c r="W1" s="33"/>
       <c r="X1" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
-        <v>758</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="33"/>
+    </row>
+    <row r="2" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
@@ -9116,16 +9116,16 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" ref="AE2:AE64" si="0">--ISNUMBER(IFERROR(SEARCH($X$1,AA2,1),""))</f>
@@ -9140,7 +9140,7 @@
         <v>Algeria</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -9167,16 +9167,16 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="AD3" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE3" s="5">
         <f t="shared" si="0"/>
@@ -9191,35 +9191,35 @@
         <v>Angola</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="36" t="str">
         <f>IFERROR(VLOOKUP(X1,AA2:AD247,4,0),"")</f>
         <v/>
       </c>
       <c r="L4" s="28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="30"/>
       <c r="X4" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AA4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="AC4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE4" s="5">
         <f t="shared" si="0"/>
@@ -9234,7 +9234,7 @@
         <v>Benin</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
@@ -9255,19 +9255,19 @@
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
       <c r="X5" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AC5" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="AD5" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE5" s="5">
         <f t="shared" si="0"/>
@@ -9282,30 +9282,30 @@
         <v>Botswana</v>
       </c>
     </row>
-    <row r="6" spans="2:34" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>773</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>756</v>
-      </c>
       <c r="I6" s="17" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
@@ -9316,19 +9316,19 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="X6" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AC6" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="AD6" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE6" s="5">
         <f t="shared" ref="AE6:AE13" si="1">--ISNUMBER(IFERROR(SEARCH($X$1,AA6,1),""))</f>
@@ -9343,12 +9343,12 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="7" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="20">
@@ -9366,7 +9366,7 @@
         <f t="shared" ref="H7:H13" si="4">IF(E7=4,"True","")</f>
         <v/>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="27"/>
@@ -9376,16 +9376,16 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="AA7" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="AD7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE7" s="5">
         <f t="shared" si="1"/>
@@ -9400,12 +9400,12 @@
         <v>Cabo Verde</v>
       </c>
     </row>
-    <row r="8" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="20">
@@ -9423,7 +9423,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="45"/>
       <c r="K8" s="45"/>
       <c r="L8" s="27"/>
@@ -9433,16 +9433,16 @@
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="AA8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="AD8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE8" s="5">
         <f t="shared" si="1"/>
@@ -9457,12 +9457,12 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="20">
@@ -9480,7 +9480,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="27"/>
@@ -9490,16 +9490,16 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="AA9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="AD9" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE9" s="5">
         <f t="shared" si="1"/>
@@ -9515,12 +9515,12 @@
       </c>
       <c r="AH9" s="9"/>
     </row>
-    <row r="10" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="20">
@@ -9538,7 +9538,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="45"/>
       <c r="K10" s="45"/>
       <c r="L10" s="27"/>
@@ -9548,16 +9548,16 @@
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="AA10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="AD10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE10" s="5">
         <f t="shared" si="1"/>
@@ -9573,12 +9573,12 @@
       </c>
       <c r="AH10" s="9"/>
     </row>
-    <row r="11" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="20">
@@ -9596,7 +9596,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
       <c r="L11" s="27"/>
@@ -9614,16 +9614,16 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="AA11" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AC11" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AC11" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="AD11" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE11" s="5">
         <f t="shared" si="1"/>
@@ -9638,12 +9638,12 @@
         <v>Comoros</v>
       </c>
     </row>
-    <row r="12" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="20">
@@ -9661,7 +9661,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="45"/>
       <c r="K12" s="45"/>
       <c r="L12" s="27"/>
@@ -9679,16 +9679,16 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
       <c r="AA12" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB12" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AC12" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AC12" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="AD12" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE12" s="5">
         <f t="shared" si="1"/>
@@ -9704,12 +9704,12 @@
       </c>
       <c r="AH12" s="9"/>
     </row>
-    <row r="13" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="20">
@@ -9727,7 +9727,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="45"/>
       <c r="K13" s="45"/>
       <c r="L13" s="27"/>
@@ -9745,16 +9745,16 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
       <c r="AA13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AC13" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AC13" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="AD13" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE13" s="5">
         <f t="shared" si="1"/>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="AH13" s="9"/>
     </row>
-    <row r="14" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -9796,16 +9796,16 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="AA14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC14" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AC14" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="AD14" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE14" s="5">
         <f t="shared" si="0"/>
@@ -9820,7 +9820,7 @@
         <v>Democratic Republic of the Congo</v>
       </c>
     </row>
-    <row r="15" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -9846,16 +9846,16 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="AA15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB15" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC15" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="AD15" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE15" s="5">
         <f t="shared" si="0"/>
@@ -9870,10 +9870,10 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -9898,16 +9898,16 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="AA16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC16" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AC16" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="AD16" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE16" s="5">
         <f t="shared" si="0"/>
@@ -9948,16 +9948,16 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="AA17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC17" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AC17" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="AD17" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE17" s="5">
         <f t="shared" si="0"/>
@@ -9998,16 +9998,16 @@
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="AA18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC18" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AC18" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="AD18" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE18" s="5">
         <f t="shared" si="0"/>
@@ -10048,16 +10048,16 @@
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
       <c r="AA19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC19" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AC19" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="AD19" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE19" s="5">
         <f t="shared" si="0"/>
@@ -10098,16 +10098,16 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="AA20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AC20" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="AD20" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE20" s="5">
         <f t="shared" si="0"/>
@@ -10148,16 +10148,16 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="AA21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB21" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="AC21" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="AD21" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE21" s="5">
         <f t="shared" si="0"/>
@@ -10198,16 +10198,16 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="AA22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC22" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AC22" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="AD22" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE22" s="5">
         <f t="shared" si="0"/>
@@ -10248,16 +10248,16 @@
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="AA23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC23" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AC23" s="5" t="s">
-        <v>240</v>
-      </c>
       <c r="AD23" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE23" s="5">
         <f t="shared" si="0"/>
@@ -10298,16 +10298,16 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="AA24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB24" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC24" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AC24" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="AD24" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE24" s="5">
         <f t="shared" si="0"/>
@@ -10348,16 +10348,16 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="AA25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB25" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC25" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AC25" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="AD25" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE25" s="5">
         <f t="shared" si="0"/>
@@ -10398,16 +10398,16 @@
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="AA26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB26" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC26" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AC26" s="5" t="s">
-        <v>246</v>
-      </c>
       <c r="AD26" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE26" s="5">
         <f t="shared" si="0"/>
@@ -10448,16 +10448,16 @@
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="AA27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB27" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC27" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AC27" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="AD27" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE27" s="5">
         <f t="shared" si="0"/>
@@ -10498,16 +10498,16 @@
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="AA28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB28" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AC28" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="AD28" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE28" s="5">
         <f t="shared" si="0"/>
@@ -10548,16 +10548,16 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="AA29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC29" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AC29" s="5" t="s">
-        <v>252</v>
-      </c>
       <c r="AD29" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE29" s="5">
         <f t="shared" si="0"/>
@@ -10598,16 +10598,16 @@
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
       <c r="AA30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB30" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC30" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AC30" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="AD30" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE30" s="5">
         <f t="shared" si="0"/>
@@ -10648,16 +10648,16 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="AA31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB31" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC31" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AC31" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="AD31" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE31" s="5">
         <f t="shared" si="0"/>
@@ -10698,16 +10698,16 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="AA32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB32" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AC32" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="AD32" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE32" s="5">
         <f t="shared" si="0"/>
@@ -10748,16 +10748,16 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="AA33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB33" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC33" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AC33" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="AD33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE33" s="5">
         <f t="shared" si="0"/>
@@ -10798,16 +10798,16 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="AA34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB34" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC34" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AC34" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="AD34" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE34" s="5">
         <f t="shared" si="0"/>
@@ -10848,16 +10848,16 @@
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
       <c r="AA35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB35" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC35" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AC35" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="AD35" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE35" s="5">
         <f t="shared" si="0"/>
@@ -10889,16 +10889,16 @@
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="AA36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB36" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC36" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="AC36" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="AD36" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE36" s="5">
         <f t="shared" si="0"/>
@@ -10930,16 +10930,16 @@
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
       <c r="AA37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC37" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="AC37" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="AD37" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE37" s="5">
         <f t="shared" si="0"/>
@@ -10971,16 +10971,16 @@
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
       <c r="AA38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB38" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC38" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AC38" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="AD38" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE38" s="5">
         <f t="shared" si="0"/>
@@ -11012,16 +11012,16 @@
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
       <c r="AA39" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC39" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="AC39" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="AD39" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE39" s="5">
         <f t="shared" si="0"/>
@@ -11053,16 +11053,16 @@
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
       <c r="AA40" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB40" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC40" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="AC40" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="AD40" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE40" s="5">
         <f t="shared" si="0"/>
@@ -11094,16 +11094,16 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="AA41" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB41" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AB41" s="5" t="s">
+      <c r="AC41" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AC41" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="AD41" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE41" s="5">
         <f t="shared" si="0"/>
@@ -11135,16 +11135,16 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
       <c r="AA42" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB42" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC42" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="AC42" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="AD42" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE42" s="5">
         <f t="shared" si="0"/>
@@ -11176,16 +11176,16 @@
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
       <c r="AA43" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB43" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC43" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="AC43" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="AD43" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE43" s="5">
         <f t="shared" si="0"/>
@@ -11217,16 +11217,16 @@
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
       <c r="AA44" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB44" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC44" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="AC44" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="AD44" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE44" s="5">
         <f t="shared" si="0"/>
@@ -11258,16 +11258,16 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="AA45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB45" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC45" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="AC45" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="AD45" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE45" s="5">
         <f t="shared" si="0"/>
@@ -11299,16 +11299,16 @@
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
       <c r="AA46" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC46" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="AC46" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="AD46" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE46" s="5">
         <f t="shared" si="0"/>
@@ -11340,16 +11340,16 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="AA47" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB47" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC47" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="AC47" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="AD47" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE47" s="5">
         <f t="shared" si="0"/>
@@ -11381,16 +11381,16 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
       <c r="AA48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB48" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC48" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="AC48" s="5" t="s">
+      <c r="AD48" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="AD48" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="AE48" s="5">
         <f t="shared" si="0"/>
@@ -11422,16 +11422,16 @@
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
       <c r="AA49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC49" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="AC49" s="5" t="s">
-        <v>294</v>
-      </c>
       <c r="AD49" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE49" s="5">
         <f t="shared" si="0"/>
@@ -11463,16 +11463,16 @@
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
       <c r="AA50" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB50" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="AB50" s="5" t="s">
+      <c r="AC50" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="AC50" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="AD50" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE50" s="5">
         <f t="shared" si="0"/>
@@ -11504,16 +11504,16 @@
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
       <c r="AA51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB51" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC51" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="AC51" s="5" t="s">
-        <v>299</v>
-      </c>
       <c r="AD51" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE51" s="5">
         <f t="shared" si="0"/>
@@ -11545,16 +11545,16 @@
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
       <c r="AA52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB52" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC52" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="AC52" s="5" t="s">
-        <v>301</v>
-      </c>
       <c r="AD52" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE52" s="5">
         <f t="shared" si="0"/>
@@ -11586,16 +11586,16 @@
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
       <c r="AA53" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB53" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC53" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="AC53" s="5" t="s">
-        <v>303</v>
-      </c>
       <c r="AD53" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE53" s="5">
         <f t="shared" si="0"/>
@@ -11627,16 +11627,16 @@
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
       <c r="AA54" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB54" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC54" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AC54" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="AD54" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE54" s="5">
         <f t="shared" si="0"/>
@@ -11668,16 +11668,16 @@
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
       <c r="AA55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB55" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC55" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="AC55" s="5" t="s">
-        <v>307</v>
-      </c>
       <c r="AD55" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE55" s="5">
         <f t="shared" si="0"/>
@@ -11709,16 +11709,16 @@
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
       <c r="AA56" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB56" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC56" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="AC56" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="AD56" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE56" s="5">
         <f t="shared" si="0"/>
@@ -11750,16 +11750,16 @@
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
       <c r="AA57" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB57" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC57" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AC57" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="AD57" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE57" s="5">
         <f t="shared" si="0"/>
@@ -11802,16 +11802,16 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB58" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC58" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AC58" s="5" t="s">
-        <v>313</v>
-      </c>
       <c r="AD58" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE58" s="5">
         <f t="shared" si="0"/>
@@ -11890,16 +11890,16 @@
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
       <c r="AA59" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB59" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC59" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AC59" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="AD59" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE59" s="5">
         <f t="shared" si="0"/>
@@ -11931,16 +11931,16 @@
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
       <c r="AA60" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB60" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC60" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AC60" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="AD60" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE60" s="5">
         <f t="shared" si="0"/>
@@ -11972,16 +11972,16 @@
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
       <c r="AA61" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB61" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC61" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AC61" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="AD61" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE61" s="5">
         <f t="shared" si="0"/>
@@ -12013,16 +12013,16 @@
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
       <c r="AA62" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB62" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC62" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="AC62" s="5" t="s">
-        <v>321</v>
-      </c>
       <c r="AD62" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE62" s="5">
         <f t="shared" si="0"/>
@@ -12054,16 +12054,16 @@
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
       <c r="AA63" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB63" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AC63" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AC63" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="AD63" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE63" s="5">
         <f t="shared" si="0"/>
@@ -12095,16 +12095,16 @@
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
       <c r="AA64" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB64" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC64" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="AC64" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="AD64" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE64" s="5">
         <f t="shared" si="0"/>
@@ -12136,16 +12136,16 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
       <c r="AA65" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB65" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC65" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AC65" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="AD65" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE65" s="5">
         <f t="shared" ref="AE65:AE128" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA65,1),""))</f>
@@ -12177,16 +12177,16 @@
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
       <c r="AA66" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB66" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC66" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="AC66" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="AD66" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE66" s="5">
         <f t="shared" si="5"/>
@@ -12203,16 +12203,16 @@
     </row>
     <row r="67" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA67" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB67" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC67" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="AC67" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="AD67" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE67" s="5">
         <f t="shared" si="5"/>
@@ -12229,16 +12229,16 @@
     </row>
     <row r="68" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA68" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB68" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC68" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="AC68" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="AD68" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE68" s="5">
         <f t="shared" si="5"/>
@@ -12255,16 +12255,16 @@
     </row>
     <row r="69" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA69" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB69" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC69" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="AC69" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="AD69" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE69" s="5">
         <f t="shared" si="5"/>
@@ -12281,16 +12281,16 @@
     </row>
     <row r="70" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA70" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB70" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC70" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="AC70" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="AD70" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE70" s="5">
         <f t="shared" si="5"/>
@@ -12307,16 +12307,16 @@
     </row>
     <row r="71" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA71" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB71" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC71" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="AC71" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="AD71" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE71" s="5">
         <f t="shared" si="5"/>
@@ -12333,16 +12333,16 @@
     </row>
     <row r="72" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA72" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB72" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC72" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="AC72" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="AD72" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE72" s="5">
         <f t="shared" si="5"/>
@@ -12359,16 +12359,16 @@
     </row>
     <row r="73" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA73" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB73" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC73" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="AC73" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="AD73" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE73" s="5">
         <f t="shared" si="5"/>
@@ -12385,16 +12385,16 @@
     </row>
     <row r="74" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA74" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB74" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC74" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AC74" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="AD74" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE74" s="5">
         <f t="shared" si="5"/>
@@ -12411,16 +12411,16 @@
     </row>
     <row r="75" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA75" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB75" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC75" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="AC75" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="AD75" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE75" s="5">
         <f t="shared" si="5"/>
@@ -12437,16 +12437,16 @@
     </row>
     <row r="76" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA76" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB76" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC76" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="AC76" s="5" t="s">
-        <v>349</v>
-      </c>
       <c r="AD76" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE76" s="5">
         <f t="shared" si="5"/>
@@ -12463,16 +12463,16 @@
     </row>
     <row r="77" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA77" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB77" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC77" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="AC77" s="5" t="s">
-        <v>351</v>
-      </c>
       <c r="AD77" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE77" s="5">
         <f t="shared" si="5"/>
@@ -12489,16 +12489,16 @@
     </row>
     <row r="78" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA78" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB78" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC78" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="AC78" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="AD78" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE78" s="5">
         <f t="shared" si="5"/>
@@ -12515,16 +12515,16 @@
     </row>
     <row r="79" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA79" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB79" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC79" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AC79" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="AD79" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE79" s="5">
         <f t="shared" si="5"/>
@@ -12541,16 +12541,16 @@
     </row>
     <row r="80" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA80" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB80" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC80" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="AC80" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="AD80" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE80" s="5">
         <f t="shared" si="5"/>
@@ -12567,16 +12567,16 @@
     </row>
     <row r="81" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA81" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB81" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC81" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="AC81" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="AD81" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE81" s="5">
         <f t="shared" si="5"/>
@@ -12593,16 +12593,16 @@
     </row>
     <row r="82" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA82" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB82" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC82" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="AC82" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="AD82" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE82" s="5">
         <f t="shared" si="5"/>
@@ -12619,16 +12619,16 @@
     </row>
     <row r="83" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA83" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB83" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC83" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="AC83" s="5" t="s">
+      <c r="AD83" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="AD83" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="AE83" s="5">
         <f t="shared" si="5"/>
@@ -12645,16 +12645,16 @@
     </row>
     <row r="84" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA84" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB84" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC84" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="AC84" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="AD84" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE84" s="5">
         <f t="shared" si="5"/>
@@ -12671,16 +12671,16 @@
     </row>
     <row r="85" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA85" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB85" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC85" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="AC85" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="AD85" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE85" s="5">
         <f t="shared" si="5"/>
@@ -12697,16 +12697,16 @@
     </row>
     <row r="86" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA86" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB86" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC86" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="AC86" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="AD86" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE86" s="5">
         <f t="shared" si="5"/>
@@ -12723,16 +12723,16 @@
     </row>
     <row r="87" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA87" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB87" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC87" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AC87" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="AD87" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE87" s="5">
         <f t="shared" si="5"/>
@@ -12749,16 +12749,16 @@
     </row>
     <row r="88" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA88" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB88" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC88" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="AC88" s="5" t="s">
-        <v>374</v>
-      </c>
       <c r="AD88" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE88" s="5">
         <f t="shared" si="5"/>
@@ -12775,16 +12775,16 @@
     </row>
     <row r="89" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA89" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB89" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC89" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="AC89" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AD89" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE89" s="5">
         <f t="shared" si="5"/>
@@ -12801,16 +12801,16 @@
     </row>
     <row r="90" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA90" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB90" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC90" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="AC90" s="5" t="s">
-        <v>378</v>
-      </c>
       <c r="AD90" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE90" s="5">
         <f t="shared" si="5"/>
@@ -12827,16 +12827,16 @@
     </row>
     <row r="91" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA91" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB91" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC91" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="AC91" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="AD91" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE91" s="5">
         <f t="shared" si="5"/>
@@ -12853,16 +12853,16 @@
     </row>
     <row r="92" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA92" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB92" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="AB92" s="5" t="s">
+      <c r="AC92" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="AC92" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="AD92" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE92" s="5">
         <f t="shared" si="5"/>
@@ -12879,16 +12879,16 @@
     </row>
     <row r="93" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA93" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB93" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC93" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="AC93" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="AD93" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE93" s="5">
         <f t="shared" si="5"/>
@@ -12905,16 +12905,16 @@
     </row>
     <row r="94" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA94" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB94" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC94" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="AC94" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="AD94" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE94" s="5">
         <f t="shared" si="5"/>
@@ -12931,16 +12931,16 @@
     </row>
     <row r="95" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA95" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB95" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC95" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="AC95" s="5" t="s">
-        <v>389</v>
-      </c>
       <c r="AD95" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE95" s="5">
         <f t="shared" si="5"/>
@@ -12957,16 +12957,16 @@
     </row>
     <row r="96" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA96" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB96" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="AB96" s="5" t="s">
+      <c r="AC96" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="AC96" s="5" t="s">
-        <v>392</v>
-      </c>
       <c r="AD96" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE96" s="5">
         <f t="shared" si="5"/>
@@ -12983,16 +12983,16 @@
     </row>
     <row r="97" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA97" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB97" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC97" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="AC97" s="5" t="s">
-        <v>394</v>
-      </c>
       <c r="AD97" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE97" s="5">
         <f t="shared" si="5"/>
@@ -13009,16 +13009,16 @@
     </row>
     <row r="98" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA98" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB98" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC98" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="AC98" s="5" t="s">
-        <v>396</v>
-      </c>
       <c r="AD98" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE98" s="5">
         <f t="shared" si="5"/>
@@ -13035,16 +13035,16 @@
     </row>
     <row r="99" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA99" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB99" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC99" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="AC99" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="AD99" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE99" s="5">
         <f t="shared" si="5"/>
@@ -13061,16 +13061,16 @@
     </row>
     <row r="100" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA100" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB100" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC100" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="AC100" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="AD100" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE100" s="5">
         <f t="shared" si="5"/>
@@ -13087,16 +13087,16 @@
     </row>
     <row r="101" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA101" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB101" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC101" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="AC101" s="5" t="s">
-        <v>402</v>
-      </c>
       <c r="AD101" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE101" s="5">
         <f t="shared" si="5"/>
@@ -13113,16 +13113,16 @@
     </row>
     <row r="102" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA102" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB102" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC102" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="AC102" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="AD102" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE102" s="5">
         <f t="shared" si="5"/>
@@ -13139,16 +13139,16 @@
     </row>
     <row r="103" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA103" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB103" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC103" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="AC103" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="AD103" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE103" s="5">
         <f t="shared" si="5"/>
@@ -13165,16 +13165,16 @@
     </row>
     <row r="104" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA104" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB104" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC104" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="AC104" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="AD104" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AE104" s="5">
         <f t="shared" si="5"/>
@@ -13191,16 +13191,16 @@
     </row>
     <row r="105" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA105" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB105" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC105" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="AC105" s="5" t="s">
+      <c r="AD105" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="AD105" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="AE105" s="5">
         <f t="shared" si="5"/>
@@ -13217,16 +13217,16 @@
     </row>
     <row r="106" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA106" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB106" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC106" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AC106" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="AD106" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE106" s="5">
         <f t="shared" si="5"/>
@@ -13243,16 +13243,16 @@
     </row>
     <row r="107" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA107" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB107" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC107" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="AC107" s="5" t="s">
-        <v>415</v>
-      </c>
       <c r="AD107" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE107" s="5">
         <f t="shared" si="5"/>
@@ -13269,16 +13269,16 @@
     </row>
     <row r="108" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA108" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB108" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC108" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="AC108" s="5" t="s">
-        <v>417</v>
-      </c>
       <c r="AD108" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE108" s="5">
         <f t="shared" si="5"/>
@@ -13295,16 +13295,16 @@
     </row>
     <row r="109" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA109" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB109" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC109" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="AC109" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="AD109" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE109" s="5">
         <f t="shared" si="5"/>
@@ -13321,16 +13321,16 @@
     </row>
     <row r="110" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA110" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB110" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC110" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="AC110" s="5" t="s">
-        <v>421</v>
-      </c>
       <c r="AD110" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE110" s="5">
         <f t="shared" si="5"/>
@@ -13347,16 +13347,16 @@
     </row>
     <row r="111" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA111" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB111" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC111" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="AC111" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="AD111" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE111" s="5">
         <f t="shared" si="5"/>
@@ -13373,16 +13373,16 @@
     </row>
     <row r="112" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA112" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB112" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC112" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="AC112" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="AD112" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE112" s="5">
         <f t="shared" si="5"/>
@@ -13399,16 +13399,16 @@
     </row>
     <row r="113" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA113" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB113" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC113" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="AC113" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="AD113" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE113" s="5">
         <f t="shared" si="5"/>
@@ -13425,16 +13425,16 @@
     </row>
     <row r="114" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA114" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB114" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC114" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="AC114" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="AD114" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE114" s="5">
         <f t="shared" si="5"/>
@@ -13451,16 +13451,16 @@
     </row>
     <row r="115" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA115" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB115" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC115" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="AC115" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="AD115" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE115" s="5">
         <f t="shared" si="5"/>
@@ -13477,16 +13477,16 @@
     </row>
     <row r="116" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA116" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB116" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC116" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="AC116" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="AD116" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE116" s="5">
         <f t="shared" si="5"/>
@@ -13503,16 +13503,16 @@
     </row>
     <row r="117" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA117" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB117" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC117" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="AC117" s="5" t="s">
-        <v>435</v>
-      </c>
       <c r="AD117" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE117" s="5">
         <f t="shared" si="5"/>
@@ -13529,16 +13529,16 @@
     </row>
     <row r="118" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA118" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB118" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC118" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="AC118" s="5" t="s">
-        <v>437</v>
-      </c>
       <c r="AD118" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE118" s="5">
         <f t="shared" si="5"/>
@@ -13555,16 +13555,16 @@
     </row>
     <row r="119" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA119" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AB119" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC119" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="AC119" s="5" t="s">
-        <v>439</v>
-      </c>
       <c r="AD119" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE119" s="5">
         <f t="shared" si="5"/>
@@ -13581,16 +13581,16 @@
     </row>
     <row r="120" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA120" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB120" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC120" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="AC120" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="AD120" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE120" s="5">
         <f t="shared" si="5"/>
@@ -13607,16 +13607,16 @@
     </row>
     <row r="121" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA121" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB121" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC121" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="AC121" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="AD121" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE121" s="5">
         <f t="shared" si="5"/>
@@ -13633,16 +13633,16 @@
     </row>
     <row r="122" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA122" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB122" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC122" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="AC122" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="AD122" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE122" s="5">
         <f t="shared" si="5"/>
@@ -13659,16 +13659,16 @@
     </row>
     <row r="123" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA123" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB123" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC123" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="AC123" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="AD123" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE123" s="5">
         <f t="shared" si="5"/>
@@ -13685,16 +13685,16 @@
     </row>
     <row r="124" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA124" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB124" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC124" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="AC124" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="AD124" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE124" s="5">
         <f t="shared" si="5"/>
@@ -13711,16 +13711,16 @@
     </row>
     <row r="125" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA125" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB125" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC125" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="AC125" s="5" t="s">
-        <v>451</v>
-      </c>
       <c r="AD125" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE125" s="5">
         <f t="shared" si="5"/>
@@ -13737,16 +13737,16 @@
     </row>
     <row r="126" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA126" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB126" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC126" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="AC126" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="AD126" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE126" s="5">
         <f t="shared" si="5"/>
@@ -13763,16 +13763,16 @@
     </row>
     <row r="127" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA127" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB127" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC127" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="AC127" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="AD127" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE127" s="5">
         <f t="shared" si="5"/>
@@ -13789,16 +13789,16 @@
     </row>
     <row r="128" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA128" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB128" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC128" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="AC128" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="AD128" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE128" s="5">
         <f t="shared" si="5"/>
@@ -13815,16 +13815,16 @@
     </row>
     <row r="129" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA129" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB129" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="AC129" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="AC129" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="AD129" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE129" s="5">
         <f t="shared" ref="AE129:AE192" si="6">--ISNUMBER(IFERROR(SEARCH($X$1,AA129,1),""))</f>
@@ -13841,16 +13841,16 @@
     </row>
     <row r="130" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA130" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB130" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC130" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="AC130" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="AD130" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE130" s="5">
         <f t="shared" si="6"/>
@@ -13867,16 +13867,16 @@
     </row>
     <row r="131" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA131" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB131" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC131" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="AC131" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="AD131" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE131" s="5">
         <f t="shared" si="6"/>
@@ -13893,16 +13893,16 @@
     </row>
     <row r="132" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA132" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB132" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC132" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AC132" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="AD132" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE132" s="5">
         <f t="shared" si="6"/>
@@ -13919,16 +13919,16 @@
     </row>
     <row r="133" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA133" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB133" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC133" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="AC133" s="5" t="s">
-        <v>467</v>
-      </c>
       <c r="AD133" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE133" s="5">
         <f t="shared" si="6"/>
@@ -13945,16 +13945,16 @@
     </row>
     <row r="134" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA134" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB134" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="AC134" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="AC134" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="AD134" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE134" s="5">
         <f t="shared" si="6"/>
@@ -13971,16 +13971,16 @@
     </row>
     <row r="135" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA135" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB135" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC135" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="AC135" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="AD135" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE135" s="5">
         <f t="shared" si="6"/>
@@ -13997,16 +13997,16 @@
     </row>
     <row r="136" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA136" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB136" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC136" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="AC136" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="AD136" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE136" s="5">
         <f t="shared" si="6"/>
@@ -14023,16 +14023,16 @@
     </row>
     <row r="137" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA137" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB137" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC137" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="AC137" s="5" t="s">
-        <v>475</v>
-      </c>
       <c r="AD137" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE137" s="5">
         <f t="shared" si="6"/>
@@ -14049,16 +14049,16 @@
     </row>
     <row r="138" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA138" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB138" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC138" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="AC138" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="AD138" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE138" s="5">
         <f t="shared" si="6"/>
@@ -14075,16 +14075,16 @@
     </row>
     <row r="139" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA139" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB139" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC139" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="AC139" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="AD139" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE139" s="5">
         <f t="shared" si="6"/>
@@ -14101,16 +14101,16 @@
     </row>
     <row r="140" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA140" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB140" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC140" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="AC140" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="AD140" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE140" s="5">
         <f t="shared" si="6"/>
@@ -14127,16 +14127,16 @@
     </row>
     <row r="141" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA141" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB141" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC141" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="AC141" s="5" t="s">
-        <v>483</v>
-      </c>
       <c r="AD141" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE141" s="5">
         <f t="shared" si="6"/>
@@ -14153,16 +14153,16 @@
     </row>
     <row r="142" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA142" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB142" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC142" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="AC142" s="5" t="s">
-        <v>485</v>
-      </c>
       <c r="AD142" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE142" s="5">
         <f t="shared" si="6"/>
@@ -14179,16 +14179,16 @@
     </row>
     <row r="143" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA143" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB143" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC143" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="AC143" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="AD143" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE143" s="5">
         <f t="shared" si="6"/>
@@ -14205,16 +14205,16 @@
     </row>
     <row r="144" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA144" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB144" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC144" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="AC144" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="AD144" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE144" s="5">
         <f t="shared" si="6"/>
@@ -14231,16 +14231,16 @@
     </row>
     <row r="145" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA145" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB145" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC145" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="AC145" s="5" t="s">
-        <v>491</v>
-      </c>
       <c r="AD145" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE145" s="5">
         <f t="shared" si="6"/>
@@ -14257,16 +14257,16 @@
     </row>
     <row r="146" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA146" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB146" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="AC146" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="AC146" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="AD146" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE146" s="5">
         <f t="shared" si="6"/>
@@ -14283,16 +14283,16 @@
     </row>
     <row r="147" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA147" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB147" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="AC147" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="AC147" s="5" t="s">
-        <v>495</v>
-      </c>
       <c r="AD147" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE147" s="5">
         <f t="shared" si="6"/>
@@ -14309,16 +14309,16 @@
     </row>
     <row r="148" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA148" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB148" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="AC148" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="AC148" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="AD148" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE148" s="5">
         <f t="shared" si="6"/>
@@ -14335,16 +14335,16 @@
     </row>
     <row r="149" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA149" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB149" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC149" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="AC149" s="5" t="s">
-        <v>499</v>
-      </c>
       <c r="AD149" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE149" s="5">
         <f t="shared" si="6"/>
@@ -14361,16 +14361,16 @@
     </row>
     <row r="150" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA150" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB150" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC150" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="AC150" s="5" t="s">
-        <v>501</v>
-      </c>
       <c r="AD150" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE150" s="5">
         <f t="shared" si="6"/>
@@ -14387,16 +14387,16 @@
     </row>
     <row r="151" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA151" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB151" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC151" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="AC151" s="5" t="s">
-        <v>503</v>
-      </c>
       <c r="AD151" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE151" s="5">
         <f t="shared" si="6"/>
@@ -14413,16 +14413,16 @@
     </row>
     <row r="152" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA152" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB152" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="AB152" s="5" t="s">
+      <c r="AC152" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="AC152" s="5" t="s">
-        <v>506</v>
-      </c>
       <c r="AD152" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE152" s="5">
         <f t="shared" si="6"/>
@@ -14439,16 +14439,16 @@
     </row>
     <row r="153" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA153" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB153" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC153" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="AC153" s="5" t="s">
-        <v>508</v>
-      </c>
       <c r="AD153" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE153" s="5">
         <f t="shared" si="6"/>
@@ -14465,16 +14465,16 @@
     </row>
     <row r="154" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA154" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB154" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC154" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="AC154" s="5" t="s">
-        <v>510</v>
-      </c>
       <c r="AD154" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE154" s="5">
         <f t="shared" si="6"/>
@@ -14491,16 +14491,16 @@
     </row>
     <row r="155" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA155" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB155" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC155" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="AC155" s="5" t="s">
-        <v>512</v>
-      </c>
       <c r="AD155" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE155" s="5">
         <f t="shared" si="6"/>
@@ -14517,16 +14517,16 @@
     </row>
     <row r="156" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA156" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB156" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AB156" s="5" t="s">
+      <c r="AC156" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AC156" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="AD156" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE156" s="5">
         <f t="shared" si="6"/>
@@ -14543,16 +14543,16 @@
     </row>
     <row r="157" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA157" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB157" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="AC157" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="AC157" s="5" t="s">
-        <v>517</v>
-      </c>
       <c r="AD157" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AE157" s="5">
         <f t="shared" si="6"/>
@@ -14569,16 +14569,16 @@
     </row>
     <row r="158" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA158" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB158" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="AB158" s="5" t="s">
+      <c r="AC158" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="AC158" s="5" t="s">
+      <c r="AD158" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="AD158" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="AE158" s="5">
         <f t="shared" si="6"/>
@@ -14595,16 +14595,16 @@
     </row>
     <row r="159" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA159" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB159" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="AB159" s="5" t="s">
+      <c r="AC159" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="AC159" s="5" t="s">
-        <v>524</v>
-      </c>
       <c r="AD159" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE159" s="5">
         <f t="shared" si="6"/>
@@ -14621,16 +14621,16 @@
     </row>
     <row r="160" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA160" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB160" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="AB160" s="5" t="s">
+      <c r="AC160" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="AC160" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="AD160" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE160" s="5">
         <f t="shared" si="6"/>
@@ -14647,16 +14647,16 @@
     </row>
     <row r="161" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA161" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB161" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="AB161" s="5" t="s">
+      <c r="AC161" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="AC161" s="5" t="s">
-        <v>530</v>
-      </c>
       <c r="AD161" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE161" s="5">
         <f t="shared" si="6"/>
@@ -14673,16 +14673,16 @@
     </row>
     <row r="162" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA162" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB162" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="AB162" s="5" t="s">
+      <c r="AC162" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="AC162" s="5" t="s">
-        <v>533</v>
-      </c>
       <c r="AD162" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE162" s="5">
         <f t="shared" si="6"/>
@@ -14699,16 +14699,16 @@
     </row>
     <row r="163" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA163" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="AB163" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="AB163" s="5" t="s">
+      <c r="AC163" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="AC163" s="5" t="s">
-        <v>536</v>
-      </c>
       <c r="AD163" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE163" s="5">
         <f t="shared" si="6"/>
@@ -14725,16 +14725,16 @@
     </row>
     <row r="164" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA164" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB164" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="AB164" s="5" t="s">
+      <c r="AC164" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="AC164" s="5" t="s">
-        <v>539</v>
-      </c>
       <c r="AD164" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE164" s="5">
         <f t="shared" si="6"/>
@@ -14751,16 +14751,16 @@
     </row>
     <row r="165" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA165" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB165" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="AB165" s="5" t="s">
+      <c r="AC165" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="AC165" s="5" t="s">
-        <v>542</v>
-      </c>
       <c r="AD165" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE165" s="5">
         <f t="shared" si="6"/>
@@ -14777,16 +14777,16 @@
     </row>
     <row r="166" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA166" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB166" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="AB166" s="5" t="s">
+      <c r="AC166" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="AC166" s="5" t="s">
-        <v>545</v>
-      </c>
       <c r="AD166" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE166" s="5">
         <f t="shared" si="6"/>
@@ -14803,16 +14803,16 @@
     </row>
     <row r="167" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA167" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB167" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="AB167" s="5" t="s">
+      <c r="AC167" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="AC167" s="5" t="s">
-        <v>548</v>
-      </c>
       <c r="AD167" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE167" s="5">
         <f t="shared" si="6"/>
@@ -14829,16 +14829,16 @@
     </row>
     <row r="168" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA168" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB168" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="AB168" s="5" t="s">
+      <c r="AC168" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="AC168" s="5" t="s">
-        <v>551</v>
-      </c>
       <c r="AD168" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE168" s="5">
         <f t="shared" si="6"/>
@@ -14855,16 +14855,16 @@
     </row>
     <row r="169" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA169" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="AB169" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="AB169" s="5" t="s">
+      <c r="AC169" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="AC169" s="5" t="s">
-        <v>554</v>
-      </c>
       <c r="AD169" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE169" s="5">
         <f t="shared" si="6"/>
@@ -14881,16 +14881,16 @@
     </row>
     <row r="170" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA170" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="AB170" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AB170" s="5" t="s">
+      <c r="AC170" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="AC170" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="AD170" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE170" s="5">
         <f t="shared" si="6"/>
@@ -14907,16 +14907,16 @@
     </row>
     <row r="171" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA171" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB171" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="AB171" s="5" t="s">
+      <c r="AC171" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="AC171" s="5" t="s">
-        <v>560</v>
-      </c>
       <c r="AD171" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE171" s="5">
         <f t="shared" si="6"/>
@@ -14933,16 +14933,16 @@
     </row>
     <row r="172" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA172" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB172" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="AB172" s="5" t="s">
+      <c r="AC172" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="AC172" s="5" t="s">
-        <v>563</v>
-      </c>
       <c r="AD172" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE172" s="5">
         <f t="shared" si="6"/>
@@ -14959,16 +14959,16 @@
     </row>
     <row r="173" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA173" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB173" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="AB173" s="5" t="s">
+      <c r="AC173" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="AC173" s="5" t="s">
-        <v>566</v>
-      </c>
       <c r="AD173" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE173" s="5">
         <f t="shared" si="6"/>
@@ -14985,16 +14985,16 @@
     </row>
     <row r="174" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA174" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB174" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="AB174" s="5" t="s">
+      <c r="AC174" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="AC174" s="5" t="s">
-        <v>569</v>
-      </c>
       <c r="AD174" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE174" s="5">
         <f t="shared" si="6"/>
@@ -15011,16 +15011,16 @@
     </row>
     <row r="175" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA175" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB175" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="AB175" s="5" t="s">
+      <c r="AC175" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="AC175" s="5" t="s">
-        <v>572</v>
-      </c>
       <c r="AD175" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE175" s="5">
         <f t="shared" si="6"/>
@@ -15037,16 +15037,16 @@
     </row>
     <row r="176" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA176" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="AB176" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="AB176" s="5" t="s">
+      <c r="AC176" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="AC176" s="5" t="s">
-        <v>575</v>
-      </c>
       <c r="AD176" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE176" s="5">
         <f t="shared" si="6"/>
@@ -15063,16 +15063,16 @@
     </row>
     <row r="177" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA177" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB177" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="AB177" s="5" t="s">
+      <c r="AC177" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="AC177" s="5" t="s">
-        <v>578</v>
-      </c>
       <c r="AD177" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE177" s="5">
         <f t="shared" si="6"/>
@@ -15089,16 +15089,16 @@
     </row>
     <row r="178" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA178" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB178" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="AB178" s="5" t="s">
+      <c r="AC178" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="AC178" s="5" t="s">
-        <v>581</v>
-      </c>
       <c r="AD178" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE178" s="5">
         <f t="shared" si="6"/>
@@ -15115,16 +15115,16 @@
     </row>
     <row r="179" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA179" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB179" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="AB179" s="5" t="s">
+      <c r="AC179" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="AC179" s="5" t="s">
-        <v>584</v>
-      </c>
       <c r="AD179" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE179" s="5">
         <f t="shared" si="6"/>
@@ -15141,16 +15141,16 @@
     </row>
     <row r="180" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA180" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="AB180" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="AB180" s="5" t="s">
+      <c r="AC180" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="AC180" s="5" t="s">
-        <v>587</v>
-      </c>
       <c r="AD180" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE180" s="5">
         <f t="shared" si="6"/>
@@ -15167,16 +15167,16 @@
     </row>
     <row r="181" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA181" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="AB181" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="AB181" s="5" t="s">
+      <c r="AC181" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="AC181" s="5" t="s">
-        <v>590</v>
-      </c>
       <c r="AD181" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE181" s="5">
         <f t="shared" si="6"/>
@@ -15193,16 +15193,16 @@
     </row>
     <row r="182" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA182" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="AB182" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="AB182" s="5" t="s">
+      <c r="AC182" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="AC182" s="5" t="s">
-        <v>593</v>
-      </c>
       <c r="AD182" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE182" s="5">
         <f t="shared" si="6"/>
@@ -15219,16 +15219,16 @@
     </row>
     <row r="183" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA183" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB183" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="AB183" s="5" t="s">
+      <c r="AC183" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="AC183" s="5" t="s">
-        <v>596</v>
-      </c>
       <c r="AD183" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE183" s="5">
         <f t="shared" si="6"/>
@@ -15245,16 +15245,16 @@
     </row>
     <row r="184" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA184" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB184" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="AB184" s="5" t="s">
+      <c r="AC184" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="AC184" s="5" t="s">
-        <v>599</v>
-      </c>
       <c r="AD184" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE184" s="5">
         <f t="shared" si="6"/>
@@ -15271,16 +15271,16 @@
     </row>
     <row r="185" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA185" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB185" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="AB185" s="5" t="s">
+      <c r="AC185" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="AC185" s="5" t="s">
-        <v>602</v>
-      </c>
       <c r="AD185" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE185" s="5">
         <f t="shared" si="6"/>
@@ -15297,16 +15297,16 @@
     </row>
     <row r="186" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA186" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB186" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="AB186" s="5" t="s">
+      <c r="AC186" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="AC186" s="5" t="s">
-        <v>605</v>
-      </c>
       <c r="AD186" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE186" s="5">
         <f t="shared" si="6"/>
@@ -15323,16 +15323,16 @@
     </row>
     <row r="187" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA187" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB187" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="AB187" s="5" t="s">
+      <c r="AC187" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="AC187" s="5" t="s">
-        <v>608</v>
-      </c>
       <c r="AD187" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE187" s="5">
         <f t="shared" si="6"/>
@@ -15349,16 +15349,16 @@
     </row>
     <row r="188" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA188" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB188" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="AB188" s="5" t="s">
+      <c r="AC188" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="AC188" s="5" t="s">
-        <v>611</v>
-      </c>
       <c r="AD188" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE188" s="5">
         <f t="shared" si="6"/>
@@ -15375,16 +15375,16 @@
     </row>
     <row r="189" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA189" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB189" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="AB189" s="5" t="s">
+      <c r="AC189" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="AC189" s="5" t="s">
-        <v>614</v>
-      </c>
       <c r="AD189" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE189" s="5">
         <f t="shared" si="6"/>
@@ -15401,16 +15401,16 @@
     </row>
     <row r="190" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA190" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB190" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="AB190" s="5" t="s">
+      <c r="AC190" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="AC190" s="5" t="s">
-        <v>617</v>
-      </c>
       <c r="AD190" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE190" s="5">
         <f t="shared" si="6"/>
@@ -15427,16 +15427,16 @@
     </row>
     <row r="191" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA191" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB191" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="AB191" s="5" t="s">
+      <c r="AC191" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="AC191" s="5" t="s">
-        <v>620</v>
-      </c>
       <c r="AD191" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE191" s="5">
         <f t="shared" si="6"/>
@@ -15453,16 +15453,16 @@
     </row>
     <row r="192" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA192" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB192" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="AB192" s="5" t="s">
+      <c r="AC192" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="AC192" s="5" t="s">
-        <v>623</v>
-      </c>
       <c r="AD192" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE192" s="5">
         <f t="shared" si="6"/>
@@ -15479,16 +15479,16 @@
     </row>
     <row r="193" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA193" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB193" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="AB193" s="5" t="s">
+      <c r="AC193" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="AC193" s="5" t="s">
-        <v>626</v>
-      </c>
       <c r="AD193" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE193" s="5">
         <f t="shared" ref="AE193:AE247" si="7">--ISNUMBER(IFERROR(SEARCH($X$1,AA193,1),""))</f>
@@ -15505,16 +15505,16 @@
     </row>
     <row r="194" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA194" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB194" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="AB194" s="5" t="s">
+      <c r="AC194" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="AC194" s="5" t="s">
-        <v>629</v>
-      </c>
       <c r="AD194" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE194" s="5">
         <f t="shared" si="7"/>
@@ -15531,16 +15531,16 @@
     </row>
     <row r="195" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA195" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB195" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="AB195" s="5" t="s">
+      <c r="AC195" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="AC195" s="5" t="s">
-        <v>632</v>
-      </c>
       <c r="AD195" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE195" s="5">
         <f t="shared" si="7"/>
@@ -15557,16 +15557,16 @@
     </row>
     <row r="196" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA196" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB196" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="AB196" s="5" t="s">
+      <c r="AC196" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="AC196" s="5" t="s">
-        <v>635</v>
-      </c>
       <c r="AD196" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE196" s="5">
         <f t="shared" si="7"/>
@@ -15583,16 +15583,16 @@
     </row>
     <row r="197" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA197" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB197" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="AB197" s="5" t="s">
+      <c r="AC197" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AC197" s="5" t="s">
-        <v>638</v>
-      </c>
       <c r="AD197" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE197" s="5">
         <f t="shared" si="7"/>
@@ -15609,16 +15609,16 @@
     </row>
     <row r="198" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA198" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB198" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="AB198" s="5" t="s">
+      <c r="AC198" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="AC198" s="5" t="s">
-        <v>641</v>
-      </c>
       <c r="AD198" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE198" s="5">
         <f t="shared" si="7"/>
@@ -15635,16 +15635,16 @@
     </row>
     <row r="199" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA199" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB199" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="AB199" s="5" t="s">
+      <c r="AC199" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="AC199" s="5" t="s">
-        <v>644</v>
-      </c>
       <c r="AD199" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE199" s="5">
         <f t="shared" si="7"/>
@@ -15661,16 +15661,16 @@
     </row>
     <row r="200" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA200" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB200" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="AB200" s="5" t="s">
+      <c r="AC200" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="AC200" s="5" t="s">
-        <v>647</v>
-      </c>
       <c r="AD200" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE200" s="5">
         <f t="shared" si="7"/>
@@ -15687,16 +15687,16 @@
     </row>
     <row r="201" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA201" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB201" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="AB201" s="5" t="s">
+      <c r="AC201" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="AC201" s="5" t="s">
-        <v>650</v>
-      </c>
       <c r="AD201" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE201" s="5">
         <f t="shared" si="7"/>
@@ -15713,16 +15713,16 @@
     </row>
     <row r="202" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA202" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB202" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="AB202" s="5" t="s">
+      <c r="AC202" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="AC202" s="5" t="s">
-        <v>653</v>
-      </c>
       <c r="AD202" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE202" s="5">
         <f t="shared" si="7"/>
@@ -15739,16 +15739,16 @@
     </row>
     <row r="203" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA203" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB203" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="AB203" s="5" t="s">
+      <c r="AC203" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="AC203" s="5" t="s">
-        <v>656</v>
-      </c>
       <c r="AD203" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE203" s="5">
         <f t="shared" si="7"/>
@@ -15765,16 +15765,16 @@
     </row>
     <row r="204" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA204" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB204" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="AB204" s="5" t="s">
+      <c r="AC204" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="AC204" s="5" t="s">
-        <v>659</v>
-      </c>
       <c r="AD204" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE204" s="5">
         <f t="shared" si="7"/>
@@ -15791,16 +15791,16 @@
     </row>
     <row r="205" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA205" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB205" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="AB205" s="5" t="s">
+      <c r="AC205" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="AC205" s="5" t="s">
-        <v>662</v>
-      </c>
       <c r="AD205" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE205" s="5">
         <f t="shared" si="7"/>
@@ -15817,16 +15817,16 @@
     </row>
     <row r="206" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA206" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB206" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="AB206" s="5" t="s">
+      <c r="AC206" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="AC206" s="5" t="s">
-        <v>665</v>
-      </c>
       <c r="AD206" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE206" s="5">
         <f t="shared" si="7"/>
@@ -15843,16 +15843,16 @@
     </row>
     <row r="207" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA207" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB207" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="AB207" s="5" t="s">
+      <c r="AC207" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="AC207" s="5" t="s">
-        <v>668</v>
-      </c>
       <c r="AD207" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE207" s="5">
         <f t="shared" si="7"/>
@@ -15869,16 +15869,16 @@
     </row>
     <row r="208" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA208" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB208" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="AB208" s="5" t="s">
+      <c r="AC208" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="AC208" s="5" t="s">
-        <v>671</v>
-      </c>
       <c r="AD208" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE208" s="5">
         <f t="shared" si="7"/>
@@ -15895,16 +15895,16 @@
     </row>
     <row r="209" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA209" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB209" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="AB209" s="5" t="s">
+      <c r="AC209" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="AC209" s="5" t="s">
-        <v>674</v>
-      </c>
       <c r="AD209" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AE209" s="5">
         <f t="shared" si="7"/>
@@ -15921,16 +15921,16 @@
     </row>
     <row r="210" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA210" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB210" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC210" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="AC210" s="5" t="s">
+      <c r="AD210" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="AD210" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="AE210" s="5">
         <f t="shared" si="7"/>
@@ -15947,16 +15947,16 @@
     </row>
     <row r="211" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA211" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB211" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC211" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="AC211" s="5" t="s">
-        <v>679</v>
-      </c>
       <c r="AD211" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE211" s="5">
         <f t="shared" si="7"/>
@@ -15973,16 +15973,16 @@
     </row>
     <row r="212" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA212" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB212" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC212" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="AC212" s="5" t="s">
-        <v>681</v>
-      </c>
       <c r="AD212" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE212" s="5">
         <f t="shared" si="7"/>
@@ -15999,16 +15999,16 @@
     </row>
     <row r="213" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA213" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB213" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC213" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="AC213" s="5" t="s">
-        <v>683</v>
-      </c>
       <c r="AD213" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE213" s="5">
         <f t="shared" si="7"/>
@@ -16025,16 +16025,16 @@
     </row>
     <row r="214" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA214" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB214" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC214" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="AC214" s="5" t="s">
-        <v>685</v>
-      </c>
       <c r="AD214" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE214" s="5">
         <f t="shared" si="7"/>
@@ -16051,16 +16051,16 @@
     </row>
     <row r="215" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA215" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB215" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC215" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="AC215" s="5" t="s">
-        <v>687</v>
-      </c>
       <c r="AD215" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE215" s="5">
         <f t="shared" si="7"/>
@@ -16077,16 +16077,16 @@
     </row>
     <row r="216" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA216" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB216" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC216" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="AC216" s="5" t="s">
-        <v>689</v>
-      </c>
       <c r="AD216" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE216" s="5">
         <f t="shared" si="7"/>
@@ -16103,16 +16103,16 @@
     </row>
     <row r="217" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA217" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB217" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC217" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="AC217" s="5" t="s">
-        <v>691</v>
-      </c>
       <c r="AD217" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE217" s="5">
         <f t="shared" si="7"/>
@@ -16129,16 +16129,16 @@
     </row>
     <row r="218" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA218" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB218" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC218" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="AC218" s="5" t="s">
-        <v>693</v>
-      </c>
       <c r="AD218" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE218" s="5">
         <f t="shared" si="7"/>
@@ -16155,16 +16155,16 @@
     </row>
     <row r="219" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA219" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB219" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC219" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AC219" s="5" t="s">
-        <v>695</v>
-      </c>
       <c r="AD219" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE219" s="5">
         <f t="shared" si="7"/>
@@ -16181,16 +16181,16 @@
     </row>
     <row r="220" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA220" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB220" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="AC220" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="AC220" s="5" t="s">
-        <v>697</v>
-      </c>
       <c r="AD220" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AE220" s="5">
         <f t="shared" si="7"/>
@@ -16207,16 +16207,16 @@
     </row>
     <row r="221" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA221" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB221" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="AC221" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="AC221" s="5" t="s">
+      <c r="AD221" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="AD221" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="AE221" s="5">
         <f t="shared" si="7"/>
@@ -16233,16 +16233,16 @@
     </row>
     <row r="222" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA222" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB222" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="AC222" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="AC222" s="5" t="s">
-        <v>702</v>
-      </c>
       <c r="AD222" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE222" s="5">
         <f t="shared" si="7"/>
@@ -16259,16 +16259,16 @@
     </row>
     <row r="223" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA223" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB223" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AC223" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="AC223" s="5" t="s">
-        <v>704</v>
-      </c>
       <c r="AD223" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE223" s="5">
         <f t="shared" si="7"/>
@@ -16285,16 +16285,16 @@
     </row>
     <row r="224" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA224" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB224" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="AB224" s="5" t="s">
+      <c r="AC224" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="AC224" s="5" t="s">
-        <v>707</v>
-      </c>
       <c r="AD224" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE224" s="5">
         <f t="shared" si="7"/>
@@ -16311,16 +16311,16 @@
     </row>
     <row r="225" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA225" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB225" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="AC225" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="AC225" s="5" t="s">
-        <v>709</v>
-      </c>
       <c r="AD225" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE225" s="5">
         <f t="shared" si="7"/>
@@ -16337,16 +16337,16 @@
     </row>
     <row r="226" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA226" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB226" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="AC226" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="AC226" s="5" t="s">
-        <v>711</v>
-      </c>
       <c r="AD226" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE226" s="5">
         <f t="shared" si="7"/>
@@ -16363,16 +16363,16 @@
     </row>
     <row r="227" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA227" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB227" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="AC227" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="AC227" s="5" t="s">
-        <v>713</v>
-      </c>
       <c r="AD227" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE227" s="5">
         <f t="shared" si="7"/>
@@ -16389,16 +16389,16 @@
     </row>
     <row r="228" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA228" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB228" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="AC228" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="AC228" s="5" t="s">
-        <v>715</v>
-      </c>
       <c r="AD228" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE228" s="5">
         <f t="shared" si="7"/>
@@ -16415,16 +16415,16 @@
     </row>
     <row r="229" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA229" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB229" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="AC229" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="AC229" s="5" t="s">
-        <v>717</v>
-      </c>
       <c r="AD229" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE229" s="5">
         <f t="shared" si="7"/>
@@ -16441,16 +16441,16 @@
     </row>
     <row r="230" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA230" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB230" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="AC230" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="AC230" s="5" t="s">
-        <v>719</v>
-      </c>
       <c r="AD230" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE230" s="5">
         <f t="shared" si="7"/>
@@ -16467,16 +16467,16 @@
     </row>
     <row r="231" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA231" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB231" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC231" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="AC231" s="5" t="s">
-        <v>721</v>
-      </c>
       <c r="AD231" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE231" s="5">
         <f t="shared" si="7"/>
@@ -16493,16 +16493,16 @@
     </row>
     <row r="232" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA232" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB232" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="AC232" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="AC232" s="5" t="s">
-        <v>723</v>
-      </c>
       <c r="AD232" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE232" s="5">
         <f t="shared" si="7"/>
@@ -16519,16 +16519,16 @@
     </row>
     <row r="233" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA233" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB233" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC233" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="AC233" s="5" t="s">
-        <v>725</v>
-      </c>
       <c r="AD233" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE233" s="5">
         <f t="shared" si="7"/>
@@ -16545,16 +16545,16 @@
     </row>
     <row r="234" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA234" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB234" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="AC234" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="AC234" s="5" t="s">
-        <v>727</v>
-      </c>
       <c r="AD234" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE234" s="5">
         <f t="shared" si="7"/>
@@ -16571,16 +16571,16 @@
     </row>
     <row r="235" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA235" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB235" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC235" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="AC235" s="5" t="s">
-        <v>729</v>
-      </c>
       <c r="AD235" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE235" s="5">
         <f t="shared" si="7"/>
@@ -16597,16 +16597,16 @@
     </row>
     <row r="236" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA236" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB236" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="AC236" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="AC236" s="5" t="s">
-        <v>731</v>
-      </c>
       <c r="AD236" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE236" s="5">
         <f t="shared" si="7"/>
@@ -16623,16 +16623,16 @@
     </row>
     <row r="237" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA237" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="AB237" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="AB237" s="5" t="s">
+      <c r="AC237" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="AC237" s="5" t="s">
-        <v>734</v>
-      </c>
       <c r="AD237" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE237" s="5">
         <f t="shared" si="7"/>
@@ -16649,16 +16649,16 @@
     </row>
     <row r="238" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA238" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB238" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="AC238" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="AC238" s="5" t="s">
-        <v>736</v>
-      </c>
       <c r="AD238" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE238" s="5">
         <f t="shared" si="7"/>
@@ -16675,16 +16675,16 @@
     </row>
     <row r="239" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA239" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB239" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="AC239" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="AC239" s="5" t="s">
-        <v>738</v>
-      </c>
       <c r="AD239" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE239" s="5">
         <f t="shared" si="7"/>
@@ -16701,16 +16701,16 @@
     </row>
     <row r="240" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA240" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB240" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC240" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="AC240" s="5" t="s">
-        <v>740</v>
-      </c>
       <c r="AD240" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE240" s="5">
         <f t="shared" si="7"/>
@@ -16727,16 +16727,16 @@
     </row>
     <row r="241" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA241" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB241" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AC241" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="AC241" s="5" t="s">
-        <v>742</v>
-      </c>
       <c r="AD241" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE241" s="5">
         <f t="shared" si="7"/>
@@ -16753,16 +16753,16 @@
     </row>
     <row r="242" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA242" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB242" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC242" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="AC242" s="5" t="s">
-        <v>744</v>
-      </c>
       <c r="AD242" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE242" s="5">
         <f t="shared" si="7"/>
@@ -16779,16 +16779,16 @@
     </row>
     <row r="243" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA243" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB243" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AC243" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="AC243" s="5" t="s">
-        <v>746</v>
-      </c>
       <c r="AD243" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE243" s="5">
         <f t="shared" si="7"/>
@@ -16805,16 +16805,16 @@
     </row>
     <row r="244" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA244" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB244" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="AC244" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="AC244" s="5" t="s">
-        <v>748</v>
-      </c>
       <c r="AD244" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE244" s="5">
         <f t="shared" si="7"/>
@@ -16831,16 +16831,16 @@
     </row>
     <row r="245" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA245" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB245" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC245" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="AC245" s="5" t="s">
-        <v>750</v>
-      </c>
       <c r="AD245" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE245" s="5">
         <f t="shared" si="7"/>
@@ -16857,16 +16857,16 @@
     </row>
     <row r="246" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA246" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB246" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="AC246" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="AC246" s="5" t="s">
-        <v>752</v>
-      </c>
       <c r="AD246" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE246" s="5">
         <f t="shared" si="7"/>
@@ -16883,16 +16883,16 @@
     </row>
     <row r="247" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA247" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB247" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC247" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="AC247" s="5" t="s">
-        <v>754</v>
-      </c>
       <c r="AD247" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AE247" s="5">
         <f t="shared" si="7"/>
@@ -16908,11 +16908,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cFvWCJgAsByN5KoAWbi4HJGXl8EGr1bvTA5sCiRNvXFCP3dgqOc4aU9EnL8zPnKgogoYEbqkScGjJeo88niqqQ==" saltValue="O+aTW1GCUT9EGtv7/S8qEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/4eIEGQ/5t7ulREnGNolTubw6ezXTyImyPeHBPDmh/MlVd4RBqkf/1CiN5+NjO0e/gLki1rN2vBDee0cv45fSw==" saltValue="6t9wvxLr4JuHu9koTcbjtA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4" xr:uid="{A7A196F9-DABF-4B9B-9E1E-CE3685CD54CA}">
+      <formula1>YEAR(TODAY())-20</formula1>
+      <formula2>YEAR(TODAY())-1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -17104,10 +17110,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:AT50"/>
+  <dimension ref="A1:AT50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17152,47 +17158,49 @@
     <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
-        <v>758</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+    <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
       <c r="AT2" s="25" t="e">
         <f>Regulation!X2</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -17208,30 +17216,30 @@
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="39" t="str">
         <f>Regulation!X1</f>
         <v/>
       </c>
       <c r="I4" s="40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="39" t="str">
         <f>Regulation!J4</f>
         <v/>
       </c>
       <c r="O4" s="38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" s="39">
         <f>Regulation!M4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="3"/>
@@ -17247,128 +17255,128 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:46" s="37" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" s="37" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="H6" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="Q6" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="T6" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="U6" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="W6" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="L6" s="17" t="s">
+      <c r="X6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="Z6" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="AA6" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC6" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="R6" s="17" t="s">
+      <c r="AD6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="AF6" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="AG6" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI6" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="T6" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="X6" s="17" t="s">
+      <c r="AJ6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="AL6" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="Y6" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="AD6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="AH6" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="AI6" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="AJ6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="AL6" s="17" t="s">
-        <v>756</v>
-      </c>
       <c r="AM6" s="17" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
@@ -17386,7 +17394,7 @@
         <f t="shared" ref="H7:H13" si="2">IF(E7=4,"True","")</f>
         <v/>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20">
         <v>1</v>
@@ -17403,7 +17411,7 @@
         <f t="shared" ref="N7:N13" si="5">IF(K7=4,"True","")</f>
         <v/>
       </c>
-      <c r="O7" s="48"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20">
         <v>1</v>
@@ -17420,7 +17428,7 @@
         <f t="shared" ref="T7:T13" si="8">IF(Q7=4,"True","")</f>
         <v/>
       </c>
-      <c r="U7" s="48"/>
+      <c r="U7" s="47"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20">
         <v>1</v>
@@ -17437,7 +17445,7 @@
         <f t="shared" ref="Z7:Z13" si="11">IF(W7=4,"True","")</f>
         <v/>
       </c>
-      <c r="AA7" s="48"/>
+      <c r="AA7" s="47"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20">
         <v>1</v>
@@ -17454,7 +17462,7 @@
         <f t="shared" ref="AF7:AF13" si="14">IF(AC7=4,"True","")</f>
         <v/>
       </c>
-      <c r="AG7" s="48"/>
+      <c r="AG7" s="47"/>
       <c r="AH7" s="20"/>
       <c r="AI7" s="20">
         <v>1</v>
@@ -17471,14 +17479,14 @@
         <f t="shared" ref="AL7:AL13" si="17">IF(AI7=4,"True","")</f>
         <v/>
       </c>
-      <c r="AM7" s="48"/>
-    </row>
-    <row r="8" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM7" s="47"/>
+    </row>
+    <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="20">
@@ -17496,7 +17504,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="21"/>
       <c r="K8" s="20">
         <v>1</v>
@@ -17513,7 +17521,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O8" s="48"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="20">
         <v>1</v>
@@ -17530,7 +17538,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U8" s="48"/>
+      <c r="U8" s="47"/>
       <c r="V8" s="21"/>
       <c r="W8" s="20">
         <v>1</v>
@@ -17547,7 +17555,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA8" s="48"/>
+      <c r="AA8" s="47"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="20">
         <v>1</v>
@@ -17564,7 +17572,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AG8" s="48"/>
+      <c r="AG8" s="47"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="20">
         <v>1</v>
@@ -17581,14 +17589,14 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AM8" s="48"/>
-    </row>
-    <row r="9" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM8" s="47"/>
+    </row>
+    <row r="9" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
@@ -17606,7 +17614,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20">
         <v>1</v>
@@ -17623,7 +17631,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O9" s="48"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20">
         <v>1</v>
@@ -17640,7 +17648,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U9" s="48"/>
+      <c r="U9" s="47"/>
       <c r="V9" s="20"/>
       <c r="W9" s="20">
         <v>1</v>
@@ -17657,7 +17665,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA9" s="48"/>
+      <c r="AA9" s="47"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20">
         <v>1</v>
@@ -17674,7 +17682,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AG9" s="48"/>
+      <c r="AG9" s="47"/>
       <c r="AH9" s="20"/>
       <c r="AI9" s="20">
         <v>1</v>
@@ -17691,14 +17699,14 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AM9" s="48"/>
-    </row>
-    <row r="10" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM9" s="47"/>
+    </row>
+    <row r="10" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
@@ -17716,7 +17724,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20">
         <v>1</v>
@@ -17733,7 +17741,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O10" s="48"/>
+      <c r="O10" s="47"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20">
         <v>1</v>
@@ -17750,7 +17758,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U10" s="48"/>
+      <c r="U10" s="47"/>
       <c r="V10" s="20"/>
       <c r="W10" s="20">
         <v>1</v>
@@ -17767,7 +17775,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA10" s="48"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20">
         <v>1</v>
@@ -17784,7 +17792,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AG10" s="48"/>
+      <c r="AG10" s="47"/>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20">
         <v>1</v>
@@ -17801,14 +17809,14 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AM10" s="48"/>
-    </row>
-    <row r="11" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM10" s="47"/>
+    </row>
+    <row r="11" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
@@ -17826,7 +17834,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20">
         <v>1</v>
@@ -17843,7 +17851,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O11" s="48"/>
+      <c r="O11" s="47"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20">
         <v>1</v>
@@ -17860,7 +17868,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U11" s="48"/>
+      <c r="U11" s="47"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20">
         <v>1</v>
@@ -17877,7 +17885,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA11" s="48"/>
+      <c r="AA11" s="47"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20">
         <v>1</v>
@@ -17894,7 +17902,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AG11" s="48"/>
+      <c r="AG11" s="47"/>
       <c r="AH11" s="20"/>
       <c r="AI11" s="20">
         <v>1</v>
@@ -17911,14 +17919,14 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AM11" s="48"/>
-    </row>
-    <row r="12" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM11" s="47"/>
+    </row>
+    <row r="12" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -17936,7 +17944,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20">
         <v>1</v>
@@ -17953,7 +17961,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O12" s="48"/>
+      <c r="O12" s="47"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20">
         <v>1</v>
@@ -17970,7 +17978,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U12" s="48"/>
+      <c r="U12" s="47"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20">
         <v>1</v>
@@ -17987,7 +17995,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA12" s="48"/>
+      <c r="AA12" s="47"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20">
         <v>1</v>
@@ -18004,7 +18012,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AG12" s="48"/>
+      <c r="AG12" s="47"/>
       <c r="AH12" s="20"/>
       <c r="AI12" s="20">
         <v>1</v>
@@ -18021,14 +18029,14 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AM12" s="48"/>
-    </row>
-    <row r="13" spans="2:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM12" s="47"/>
+    </row>
+    <row r="13" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">
@@ -18046,7 +18054,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20">
         <v>1</v>
@@ -18063,7 +18071,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O13" s="48"/>
+      <c r="O13" s="47"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20">
         <v>1</v>
@@ -18080,7 +18088,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="U13" s="48"/>
+      <c r="U13" s="47"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20">
         <v>1</v>
@@ -18097,7 +18105,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AA13" s="48"/>
+      <c r="AA13" s="47"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20">
         <v>1</v>
@@ -18114,7 +18122,7 @@
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AG13" s="48"/>
+      <c r="AG13" s="47"/>
       <c r="AH13" s="20"/>
       <c r="AI13" s="20">
         <v>1</v>
@@ -18131,9 +18139,9 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="AM13" s="48"/>
-    </row>
-    <row r="14" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM13" s="47"/>
+    </row>
+    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -18173,7 +18181,7 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -18213,7 +18221,7 @@
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
     </row>
-    <row r="16" spans="2:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -19053,10 +19061,10 @@
       <c r="N50" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bZPSeKgIYcIZzDOvKuj8obSpNpqKOX2XV//MRLHWg7JY/tzICNypS6lkmdsDUWs7ENCWHUv3k0AJslj6KaP8kg==" saltValue="Jja7gjb7a+/dPC4AMPy7EQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="va+lyVm3QvpBvRMvMsqX1MDCLFOOpsG5HDvJHUkzMW23nH27o+lffmGycEyBAURcJlo/ZrPxSVoVAdgt1xWMmQ==" saltValue="8hfqmoatDfbBl/OrluzHwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19997,10 +20005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:W50"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20026,47 +20034,49 @@
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
-        <v>758</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
       <c r="W2" s="25" t="e">
         <f>Regulation!X2</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
@@ -20082,30 +20092,30 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="42" t="str">
         <f>Regulation!X1</f>
         <v/>
       </c>
       <c r="I4" s="43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="42" t="str">
         <f>Regulation!J4</f>
         <v/>
       </c>
       <c r="P4" s="41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="42">
         <f>Regulation!M4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="3"/>
@@ -20121,56 +20131,56 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:23" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="I6" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>772</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>769</v>
-      </c>
       <c r="L6" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>756</v>
-      </c>
       <c r="O6" s="17" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20">
@@ -20188,7 +20198,7 @@
         <f t="shared" ref="H7:H13" si="2">IF(E7=4,"True","")</f>
         <v/>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20">
         <v>1</v>
@@ -20205,14 +20215,14 @@
         <f t="shared" ref="N7:N13" si="5">IF(K7=4,"True","")</f>
         <v/>
       </c>
-      <c r="O7" s="48"/>
-    </row>
-    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
         <v>2</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="20">
@@ -20230,7 +20240,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="21"/>
       <c r="K8" s="20">
         <v>1</v>
@@ -20247,14 +20257,14 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O8" s="48"/>
-    </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="47"/>
+    </row>
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
         <v>3</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
@@ -20272,7 +20282,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="48"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20">
         <v>1</v>
@@ -20289,14 +20299,14 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O9" s="48"/>
-    </row>
-    <row r="10" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="47"/>
+    </row>
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
         <v>4</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
@@ -20314,7 +20324,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I10" s="48"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20">
         <v>1</v>
@@ -20331,14 +20341,14 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O10" s="48"/>
-    </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="47"/>
+    </row>
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
         <v>5</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
@@ -20356,7 +20366,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20">
         <v>1</v>
@@ -20373,14 +20383,14 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O11" s="48"/>
-    </row>
-    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="47"/>
+    </row>
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -20398,7 +20408,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20">
         <v>1</v>
@@ -20415,14 +20425,14 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O12" s="48"/>
-    </row>
-    <row r="13" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="47"/>
+    </row>
+    <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">
@@ -20440,7 +20450,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20">
         <v>1</v>
@@ -20457,9 +20467,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O13" s="48"/>
-    </row>
-    <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="47"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -20475,7 +20485,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -20491,7 +20501,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -20986,10 +20996,10 @@
       <c r="N50" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZrkAevrjfuMvlszjm6YXA7YnLtofjB4ejaq4ENIF+fdQNXHyZOhxF/iK7eC2jaI+e+Q2FKKZLC8XDvFnk0l6Sg==" saltValue="S1v5WEjOdB5pYuH+US4vUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9UOlREsPX1gm4TvH/kTbhoMaKUSF2WsFWJ9zkWKohkqQKwY1qKJpyKIfSf0N6D33DZZoL6zIMrManpWNLMCWaA==" saltValue="YF11L8C3W2P4+RVOBV8ujA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
